--- a/UnitTest/1_test_config.xlsx
+++ b/UnitTest/1_test_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D38D4B2-428D-4945-A393-EAA8020485AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE07C861-7C66-43EF-BDEA-940444248D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31548" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="781">
   <si>
     <t>Название</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Регулярное выражение разбивки компетенции</t>
   </si>
   <si>
-    <t>(\w{1,})\W{0,}-(.{1,})</t>
-  </si>
-  <si>
     <t>Каталоги данных УП</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>За какой курс</t>
   </si>
   <si>
-    <t>(\w{1,}).{0,}-(.{1,})\.(.{0,})</t>
-  </si>
-  <si>
     <t>Процент распределения Компетенции</t>
   </si>
   <si>
@@ -2011,9 +2005,6 @@
     <t>Альтернативная формула</t>
   </si>
   <si>
-    <t>\w{1,}.{0,}-(\d{1,})(\w{1,}).{0,}-(.{1,})</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -2098,9 +2089,6 @@
     <t>Усечение среднего для мер центральной тенденции (процент)</t>
   </si>
   <si>
-    <t>(\w{1,})()</t>
-  </si>
-  <si>
     <t>Регулярное выражение разбивки кода направления подготовки</t>
   </si>
   <si>
@@ -2381,6 +2369,33 @@
   </si>
   <si>
     <t>Процент распределения группы компетенции</t>
+  </si>
+  <si>
+    <t>([0-9]{1,})()</t>
+  </si>
+  <si>
+    <t>Сколько вершин в одной строке</t>
+  </si>
+  <si>
+    <t>Сдвиг вершин по X</t>
+  </si>
+  <si>
+    <t>Сдвиг вершин по Y</t>
+  </si>
+  <si>
+    <t>Сдвиг вершин по Z</t>
+  </si>
+  <si>
+    <t>Разброс координат</t>
+  </si>
+  <si>
+    <t>([а-яА-Яa-zA-Z]{1,}).{0,}-(.{1,})\.(.{0,})</t>
+  </si>
+  <si>
+    <t>[а-яА-Яa-zA-Z]{1,}.{0,}-(\d{1,})([а-яА-Яa-zA-Z]{1,}).{0,}-(.{1,})</t>
+  </si>
+  <si>
+    <t>([а-яА-Яa-zA-Z]{1,})[^а-яА-Яa-zA-Z]{0,}-(.{1,})</t>
   </si>
 </sst>
 </file>
@@ -2666,7 +2681,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2743,6 +2758,26 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2770,9 +2805,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2782,22 +2814,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3114,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3131,20 +3147,20 @@
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="54" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -3157,11 +3173,11 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
@@ -3172,7 +3188,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3180,7 +3196,7 @@
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3188,12 +3204,12 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -3209,36 +3225,36 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
-        <v>137</v>
+      <c r="A9" s="55" t="s">
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>138</v>
+      <c r="A11" s="55" t="s">
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9" t="s">
         <v>73</v>
       </c>
@@ -3261,87 +3277,87 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B16" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B17" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -3349,14 +3365,14 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="57" t="s">
         <v>106</v>
       </c>
       <c r="B27" t="s">
@@ -3365,27 +3381,27 @@
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
-        <v>150</v>
+      <c r="A29" s="57" t="s">
+        <v>148</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="57" t="s">
         <v>121</v>
       </c>
       <c r="B31" t="s">
@@ -3393,9 +3409,9 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3411,12 +3427,12 @@
         <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -3424,7 +3440,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -3432,7 +3448,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -3440,7 +3456,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -3448,35 +3464,35 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="47" t="s">
-        <v>622</v>
+      <c r="A40" s="57" t="s">
+        <v>620</v>
       </c>
       <c r="B40" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C40" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
-        <v>164</v>
+      <c r="A42" s="57" t="s">
+        <v>162</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
@@ -3492,113 +3508,113 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
+      <c r="B45" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="9" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="48" t="s">
-        <v>168</v>
+      <c r="A47" s="58" t="s">
+        <v>166</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="9" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="s">
-        <v>724</v>
+      <c r="A49" s="58" t="s">
+        <v>720</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D49" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="9" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B53" s="5">
         <v>2</v>
@@ -3617,51 +3633,51 @@
         <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="57" t="s">
         <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>778</v>
       </c>
       <c r="C56" t="s">
-        <v>652</v>
+        <v>779</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="57" t="s">
+        <v>722</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="57"/>
+      <c r="B60" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="47" t="s">
-        <v>726</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
-      <c r="B60" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="C60" s="19"/>
     </row>
@@ -3669,16 +3685,16 @@
       <c r="A61" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>136</v>
+      <c r="B61" s="48" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>681</v>
+        <v>678</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3691,7 +3707,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>108</v>
@@ -3699,26 +3715,26 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3731,10 +3747,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3755,7 +3771,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>85</v>
@@ -3763,15 +3779,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B74" s="32">
         <v>4</v>
@@ -3779,7 +3795,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B75" s="20">
         <v>0.05</v>
@@ -3787,7 +3803,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B76" s="5">
         <v>6</v>
@@ -3795,7 +3811,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B77" s="39">
         <v>2</v>
@@ -3827,7 +3843,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B81" s="20">
         <v>0.05</v>
@@ -3835,18 +3851,18 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B82" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="B83" s="46"/>
-      <c r="C83" s="46"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
@@ -3861,7 +3877,7 @@
         <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3881,11 +3897,11 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
     </row>
     <row r="89" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="49" t="s">
@@ -3897,32 +3913,73 @@
       <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B91" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B92" t="s">
-        <v>698</v>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B95">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="B96">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A56:A58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A40:A41"/>
@@ -3942,7 +3999,6 @@
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A56:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3992,13 +4048,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4008,7 +4064,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -4039,39 +4095,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>631</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" t="s">
         <v>634</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>636</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>638</v>
-      </c>
-      <c r="D2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" t="s">
         <v>635</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>637</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>639</v>
-      </c>
-      <c r="D3" t="s">
-        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -4100,18 +4156,18 @@
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4119,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4127,12 +4183,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4143,7 +4199,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4151,7 +4207,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4159,7 +4215,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4170,7 +4226,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4178,7 +4234,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4186,7 +4242,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4197,7 +4253,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4208,7 +4264,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4216,7 +4272,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4232,7 +4288,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4240,7 +4296,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4264,7 +4320,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4272,7 +4328,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4280,7 +4336,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4296,7 +4352,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4320,7 +4376,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4328,7 +4384,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4336,7 +4392,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4344,7 +4400,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4352,7 +4408,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4360,7 +4416,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4400,7 +4456,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4408,7 +4464,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4440,7 +4496,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4448,7 +4504,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4456,7 +4512,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4464,7 +4520,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4480,7 +4536,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4488,7 +4544,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4496,7 +4552,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4504,7 +4560,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4512,7 +4568,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4520,7 +4576,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4528,7 +4584,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4536,7 +4592,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4544,7 +4600,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4552,7 +4608,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4560,7 +4616,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4568,7 +4624,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4576,7 +4632,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4584,7 +4640,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4592,7 +4648,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4600,7 +4656,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4608,7 +4664,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4616,7 +4672,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4624,7 +4680,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4632,7 +4688,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4640,7 +4696,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4648,7 +4704,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4688,7 +4744,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4696,7 +4752,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4704,7 +4760,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4712,7 +4768,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4720,7 +4776,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4728,7 +4784,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4736,7 +4792,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4744,7 +4800,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4752,7 +4808,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4760,7 +4816,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4768,7 +4824,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4776,7 +4832,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4784,7 +4840,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4792,7 +4848,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4800,7 +4856,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4808,7 +4864,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4816,7 +4872,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4824,7 +4880,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4832,7 +4888,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4840,7 +4896,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4848,7 +4904,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4856,7 +4912,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4872,7 +4928,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4880,7 +4936,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4888,7 +4944,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4896,7 +4952,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4904,7 +4960,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4912,7 +4968,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4920,7 +4976,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4928,7 +4984,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4936,7 +4992,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4944,7 +5000,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4952,7 +5008,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4960,7 +5016,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4968,7 +5024,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4976,7 +5032,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4984,7 +5040,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4992,7 +5048,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -5000,7 +5056,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -5008,7 +5064,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5016,7 +5072,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5024,7 +5080,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5032,7 +5088,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5040,7 +5096,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5048,7 +5104,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -5056,7 +5112,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -5064,7 +5120,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -5072,7 +5128,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5080,7 +5136,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -5088,7 +5144,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -5096,7 +5152,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5104,7 +5160,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5112,7 +5168,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5120,7 +5176,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -5128,7 +5184,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -5136,7 +5192,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5144,7 +5200,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -5152,7 +5208,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -5160,7 +5216,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5168,7 +5224,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -5176,7 +5232,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -5184,7 +5240,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -5192,7 +5248,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5200,7 +5256,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -5208,7 +5264,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5216,7 +5272,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5224,7 +5280,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5232,7 +5288,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5240,7 +5296,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5248,7 +5304,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5256,7 +5312,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5264,7 +5320,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5272,7 +5328,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5280,7 +5336,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5288,7 +5344,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5296,7 +5352,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5304,7 +5360,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5312,7 +5368,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5320,7 +5376,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5328,7 +5384,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5336,7 +5392,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -5344,7 +5400,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5352,7 +5408,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5363,7 +5419,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5371,7 +5427,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5379,7 +5435,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5387,7 +5443,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -5395,7 +5451,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5403,7 +5459,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5411,7 +5467,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5419,7 +5475,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5427,7 +5483,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5435,7 +5491,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5443,7 +5499,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5451,7 +5507,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5459,7 +5515,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5467,7 +5523,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5475,7 +5531,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5483,7 +5539,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5491,7 +5547,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5499,7 +5555,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5507,7 +5563,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5515,7 +5571,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5523,7 +5579,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5531,7 +5587,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5539,7 +5595,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5547,7 +5603,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5555,7 +5611,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5563,7 +5619,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5571,7 +5627,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -5579,7 +5635,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5587,7 +5643,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5595,7 +5651,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5603,7 +5659,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -5611,7 +5667,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5627,7 +5683,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5635,7 +5691,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5643,7 +5699,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5651,7 +5707,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5659,7 +5715,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5667,7 +5723,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5675,7 +5731,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5683,7 +5739,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5691,7 +5747,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5699,7 +5755,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -5707,7 +5763,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5715,7 +5771,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5723,7 +5779,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5731,7 +5787,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -5739,7 +5795,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5747,7 +5803,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5755,7 +5811,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5763,7 +5819,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5771,7 +5827,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5779,7 +5835,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5787,7 +5843,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -5795,7 +5851,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -5803,7 +5859,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -5811,7 +5867,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -5819,7 +5875,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5827,7 +5883,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5835,7 +5891,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5843,7 +5899,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5851,7 +5907,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5859,7 +5915,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5867,7 +5923,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -5875,7 +5931,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5883,7 +5939,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -5899,7 +5955,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5907,7 +5963,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5915,7 +5971,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5931,7 +5987,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5939,7 +5995,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5947,7 +6003,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5955,7 +6011,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5963,7 +6019,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5971,7 +6027,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -5979,7 +6035,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5987,7 +6043,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5995,7 +6051,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -6003,7 +6059,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -6011,7 +6067,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -6019,7 +6075,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -6027,7 +6083,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -6035,7 +6091,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -6043,7 +6099,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -6051,7 +6107,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -6062,7 +6118,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -6070,7 +6126,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -6078,7 +6134,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -6086,7 +6142,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -6094,7 +6150,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -6102,7 +6158,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -6110,7 +6166,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -6118,7 +6174,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -6126,7 +6182,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -6134,7 +6190,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -6142,7 +6198,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -6150,7 +6206,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -6158,7 +6214,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -6166,7 +6222,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -6174,7 +6230,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -6182,7 +6238,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -6190,7 +6246,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -6198,7 +6254,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -6206,7 +6262,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -6214,7 +6270,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6222,7 +6278,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -6230,7 +6286,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -6238,7 +6294,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6246,7 +6302,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6254,7 +6310,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6262,7 +6318,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -6270,7 +6326,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6278,7 +6334,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6286,7 +6342,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6294,7 +6350,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6302,7 +6358,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -6310,7 +6366,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -6318,7 +6374,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6326,7 +6382,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -6334,7 +6390,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -6342,7 +6398,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -6350,7 +6406,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -6358,7 +6414,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6366,7 +6422,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6374,7 +6430,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -6382,7 +6438,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6390,7 +6446,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -6398,7 +6454,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -6406,7 +6462,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -6414,7 +6470,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -6422,7 +6478,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6430,7 +6486,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -6438,7 +6494,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6446,7 +6502,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -6454,7 +6510,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -6462,7 +6518,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -6470,7 +6526,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -6478,7 +6534,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6494,7 +6550,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -6502,7 +6558,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -6510,7 +6566,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -6518,7 +6574,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -6526,7 +6582,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -6534,7 +6590,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -6542,7 +6598,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -6550,7 +6606,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -6558,7 +6614,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6566,7 +6622,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -6574,7 +6630,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -6582,7 +6638,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -6590,7 +6646,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -6598,7 +6654,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6606,7 +6662,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -6614,7 +6670,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6622,7 +6678,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6630,7 +6686,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -6638,7 +6694,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6646,7 +6702,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6654,7 +6710,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6662,7 +6718,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6670,7 +6726,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -6678,7 +6734,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6694,7 +6750,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6702,7 +6758,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6710,7 +6766,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -6718,7 +6774,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6729,7 +6785,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -6737,7 +6793,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -6745,7 +6801,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6756,7 +6812,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6764,7 +6820,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6772,7 +6828,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6780,7 +6836,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -6788,7 +6844,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -6796,7 +6852,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6804,7 +6860,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6812,7 +6868,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -6820,7 +6876,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -6828,7 +6884,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -6836,7 +6892,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -6844,7 +6900,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -6852,7 +6908,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6860,7 +6916,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6876,7 +6932,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6884,7 +6940,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -6892,7 +6948,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6900,7 +6956,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6916,7 +6972,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -6932,7 +6988,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6940,7 +6996,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6948,7 +7004,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -6956,7 +7012,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6972,7 +7028,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6980,7 +7036,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -6988,7 +7044,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6996,7 +7052,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -7004,7 +7060,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -7012,7 +7068,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -7020,7 +7076,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -7028,7 +7084,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -7036,7 +7092,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -7044,7 +7100,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -7052,7 +7108,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -7060,7 +7116,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -7084,7 +7140,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -7092,7 +7148,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -7100,7 +7156,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -7108,7 +7164,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -7116,7 +7172,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -7124,7 +7180,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -7132,7 +7188,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -7140,7 +7196,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -7148,7 +7204,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -7156,7 +7212,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -7167,7 +7223,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -7175,7 +7231,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -7183,7 +7239,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -7191,7 +7247,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -7199,7 +7255,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -7207,7 +7263,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -7215,7 +7271,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -7223,7 +7279,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -7231,7 +7287,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -7239,7 +7295,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -7247,7 +7303,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -7271,7 +7327,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -7279,7 +7335,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -7287,7 +7343,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -7295,7 +7351,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -7303,7 +7359,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -7311,7 +7367,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -7319,7 +7375,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -7327,7 +7383,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -7335,7 +7391,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -7343,7 +7399,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -7351,7 +7407,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -7359,7 +7415,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -7367,7 +7423,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -7375,7 +7431,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -7383,7 +7439,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -7391,7 +7447,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -7399,7 +7455,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -7407,7 +7463,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -7415,7 +7471,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -7423,7 +7479,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -7431,7 +7487,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -7439,7 +7495,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -7447,7 +7503,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -7455,7 +7511,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -7463,7 +7519,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -7471,7 +7527,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -7479,7 +7535,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -7487,7 +7543,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -7495,7 +7551,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -7503,7 +7559,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -7511,7 +7567,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -7519,7 +7575,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -7527,7 +7583,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -7535,7 +7591,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -7543,7 +7599,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -7551,7 +7607,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -7559,7 +7615,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -7567,7 +7623,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -7575,7 +7631,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -7583,7 +7639,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7591,7 +7647,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -7599,7 +7655,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -7607,7 +7663,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -7615,7 +7671,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -7623,7 +7679,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -7631,7 +7687,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -7639,7 +7695,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -7647,7 +7703,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -7655,7 +7711,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -7663,7 +7719,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -7741,13 +7797,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>117</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -7755,7 +7811,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>72</v>
@@ -7763,10 +7819,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>72</v>
@@ -7774,10 +7830,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>72</v>
@@ -7785,10 +7841,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>628</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>736</v>
+        <v>626</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>732</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>72</v>
@@ -7796,32 +7852,32 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>737</v>
+        <v>169</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>733</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
-        <v>709</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>738</v>
+      <c r="A7" s="44" t="s">
+        <v>705</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>734</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
-        <v>710</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>739</v>
+      <c r="A8" s="44" t="s">
+        <v>706</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>735</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>72</v>
@@ -7829,10 +7885,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>740</v>
+        <v>707</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>736</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>72</v>
@@ -7840,10 +7896,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>72</v>
@@ -7851,10 +7907,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>72</v>
@@ -7862,10 +7918,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>72</v>
@@ -7873,10 +7929,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>72</v>
@@ -7884,10 +7940,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>72</v>
@@ -7895,10 +7951,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>72</v>
@@ -7906,10 +7962,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>747</v>
+        <v>167</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>743</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>72</v>
@@ -7917,32 +7973,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>714</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>748</v>
+        <v>710</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>744</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
-        <v>715</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>749</v>
+      <c r="A18" s="40" t="s">
+        <v>711</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>745</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
-        <v>716</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>750</v>
+      <c r="A19" s="41" t="s">
+        <v>712</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>746</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>72</v>
@@ -7950,10 +8006,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>751</v>
+        <v>168</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>747</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>72</v>
@@ -7961,10 +8017,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>752</v>
+        <v>171</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>748</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>72</v>
@@ -7972,10 +8028,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>753</v>
+        <v>172</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>749</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>72</v>
@@ -7983,10 +8039,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>754</v>
+        <v>173</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>750</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>72</v>
@@ -7996,8 +8052,8 @@
       <c r="A24" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>755</v>
+      <c r="B24" s="45" t="s">
+        <v>751</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>72</v>
@@ -8005,10 +8061,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>756</v>
+        <v>163</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>752</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>72</v>
@@ -8016,10 +8072,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>757</v>
+        <v>165</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>753</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>72</v>
@@ -8027,10 +8083,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>758</v>
+        <v>164</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>754</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>72</v>
@@ -8040,8 +8096,8 @@
       <c r="A28" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>759</v>
+      <c r="B28" s="45" t="s">
+        <v>755</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>72</v>
@@ -8051,8 +8107,8 @@
       <c r="A29" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="59" t="s">
-        <v>760</v>
+      <c r="B29" s="46" t="s">
+        <v>756</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>72</v>
@@ -8062,8 +8118,8 @@
       <c r="A30" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="58" t="s">
-        <v>761</v>
+      <c r="B30" s="45" t="s">
+        <v>757</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>72</v>
@@ -8073,8 +8129,8 @@
       <c r="A31" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>762</v>
+      <c r="B31" s="46" t="s">
+        <v>758</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>72</v>
@@ -8084,8 +8140,8 @@
       <c r="A32" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>763</v>
+      <c r="B32" s="45" t="s">
+        <v>759</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>72</v>
@@ -8093,10 +8149,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>764</v>
+        <v>183</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>760</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>72</v>
@@ -8104,10 +8160,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>765</v>
+        <v>713</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>761</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>72</v>
@@ -8115,10 +8171,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>658</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>766</v>
+        <v>655</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>762</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>72</v>
@@ -8126,10 +8182,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>719</v>
+        <v>714</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>715</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>72</v>
@@ -8137,10 +8193,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
-        <v>720</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>721</v>
+        <v>716</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>717</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>72</v>
@@ -8148,10 +8204,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>768</v>
+        <v>763</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>764</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>72</v>
@@ -8162,7 +8218,7 @@
         <v>112</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>72</v>
@@ -8173,7 +8229,7 @@
         <v>113</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>72</v>
@@ -8181,10 +8237,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>72</v>
@@ -8192,10 +8248,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>72</v>
@@ -8203,10 +8259,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>72</v>
@@ -8222,8 +8278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8237,29 +8293,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>627</v>
+      <c r="A2" s="47" t="s">
+        <v>625</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>147</v>
+      <c r="A3" s="47" t="s">
+        <v>146</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>72</v>
@@ -8267,10 +8323,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -8278,10 +8334,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -8289,10 +8345,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
@@ -8300,10 +8356,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -8311,10 +8367,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>72</v>
@@ -8322,10 +8378,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>72</v>
@@ -8333,32 +8389,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>557</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>559</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
-        <v>205</v>
+      <c r="A11" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
-        <v>149</v>
+      <c r="A12" s="47" t="s">
+        <v>147</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>72</v>
@@ -8366,57 +8422,57 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
         <v>199</v>
       </c>
-      <c r="B13" t="s">
-        <v>201</v>
-      </c>
       <c r="C13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -8459,7 +8515,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8491,7 +8547,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8547,7 +8603,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8675,7 +8731,7 @@
         <v>126</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8683,23 +8739,23 @@
         <v>127</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -8722,47 +8778,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -8810,11 +8866,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
